--- a/data-input/marzahnsued.xlsx
+++ b/data-input/marzahnsued.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/GitHub/bezirksregionenprofile-daten/data-input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E2E7C7-0BC9-1B47-B586-6531D234DA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0424999F-07FB-8A4D-B342-3F3FCCDBBFC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1169">
   <si>
     <t>ref</t>
   </si>
@@ -4617,6 +4617,15 @@
   </si>
   <si>
     <t>9.07</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>10,4</t>
   </si>
 </sst>
 </file>
@@ -17168,7 +17177,7 @@
   <dimension ref="A1:D997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -17196,8 +17205,8 @@
       <c r="A2" s="36" t="s">
         <v>838</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>1132</v>
+      <c r="B2" s="38">
+        <v>43.8</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>1121</v>
@@ -17210,8 +17219,8 @@
       <c r="A3" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>1136</v>
+      <c r="B3" s="38">
+        <v>47.9</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -17220,8 +17229,8 @@
       <c r="A4" s="24" t="s">
         <v>843</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>1140</v>
+      <c r="B4" s="38">
+        <v>46.2</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -17230,8 +17239,8 @@
       <c r="A5" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>1143</v>
+      <c r="B5" s="38">
+        <v>47.1</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -21222,7 +21231,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -21299,9 +21308,9 @@
   </sheetPr>
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -21847,7 +21856,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>1160</v>
@@ -64064,7 +64073,7 @@
   <dimension ref="A1:D997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -64107,7 +64116,7 @@
         <v>841</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1103</v>
+        <v>1166</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -64117,7 +64126,7 @@
         <v>843</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1105</v>
+        <v>1167</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -64127,7 +64136,7 @@
         <v>845</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1108</v>
+        <v>1168</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>

--- a/data-input/marzahnsued.xlsx
+++ b/data-input/marzahnsued.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/GitHub/bezirksregionenprofile-daten/data-input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D0F0A8-9091-CF4F-A5C9-0EB2DD61E8C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC18EF2B-3F00-CA43-8DEF-13882B9A87C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1840" windowWidth="25560" windowHeight="13180" tabRatio="756" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="4200" windowWidth="27840" windowHeight="14380" tabRatio="756" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1182">
   <si>
     <t>ref</t>
   </si>
@@ -4213,9 +4213,6 @@
     <t xml:space="preserve">Lage der Bezirksregion </t>
   </si>
   <si>
-    <t xml:space="preserve">Marzahn-Süd (BZR 100103) ist mit einer Fläche von 903 ha die größte der drei Be- zirksregionen der Großsiedlung Marzahn. </t>
-  </si>
-  <si>
     <t>Städtebauliche Strukturen</t>
   </si>
   <si>
@@ -4454,26 +4451,6 @@
   </si>
   <si>
     <t>marzahnsued_abb1.png</t>
-  </si>
-  <si>
-    <t>Die Bezirksregion besteht aus vier Planungsräumen:
-- Marzahner Chaussee (10010308),
-- Springpfuhl (10010309),
-- Alt-Marzahn (10010310),
-- Landsberger Tor (10010311).</t>
-  </si>
-  <si>
-    <t>Begrenzt wird die Bezirksregion im Norden durch die Landsberger Allee, im Süden durch das Siedlungsgebiet Biesdorf, im Osten durch den Wuhle-Landschaftsraum und im Westen durch die Rhinstraße und den Bezirk Lichtenberg.</t>
-  </si>
-  <si>
-    <t>Der Grundstein für die Großsiedlung Marzahn wurde 1977 im Planungsraum Springpfuhl gelegt. Die Baustruktur der Bezirksregion ist geprägt von 5- bis 11-geschossigen Wohngebäuden, ergänzt durch 18- bis 21-geschossige Punkthochhäuser, entlang der Allee der Kosmonauten und der Poelchaustraße.
-Städtebaulich besonders markant ist die Bebauung am Helene-Weigel-Platz mit den drei 24- bzw. 26-geschossigen Hochhäusern sowie dem inzwischen denkmalgeschützten Rathaus Marzahn.
-Für die Bezirksregion charakteristisch ist der erhaltene Dorfkern Alt-Marzahn mit historischem Anger und Kirche sowie der Bockwindmühle als Landmarke inmitten der Großsiedlung. Südlich anschließend an den Dorfkern befinden sich im Planungsraum Alt-Marzahn größere zusammenhängende Ein- und Zweifamilienhausgebiete. Auch der Planungsraum Marzahner Chaussee besteht nahezu ausschließlich aus diesen Kleinhausgebieten.
-Im Planungsraum Landsberger Tor entstand in den 1990er Jahren das gleichnamige Wohnquartier mit 5- bis 6-geschossigen Wohngebäuden. Typisch für die Baustruktur der Großsiedlung ist, dass wichtige Infrastrukturen, wie Kitas und Schulen, wohnnah vorhanden sind.
-Es gibt zwei größere Nahversorgungs- und Dienstleistungszentren, die durch Angebote in Streulagen ergänzt werden. Hinzu kommt ein großes Fachmarktzentrum an der Märkischen Spitze.
-Nicht nur für den Bezirk, sondern überregional von Bedeutung, sind die "Gärten der Welt" auf einer 21 ha großen Fläche im Planungsraum Landsberger Tor, wo 2017 die Internationale Gartenausstellung stattfand.
-Ebenso bedeutsam sind die Gewerbegebiete westlich der S-Bahn, die einen Großteil des Planungsraums Marzahner Chaussee ausmachen und bis an die Bezirksgrenze zu Lichtenberg heranreichen. Hierzu gehört auch das weithin sichtbare Bürohochhaus "Pyramide Marzahn".
-Die verkehrliche Erschließung erfolgt über die Märkische Allee (Bundesstraße 158), die Landsberger Allee, die Rhinstraße sowie die Allee der Kosmonauten. In der Bezirksregion liegen zwei S-Bahnhöfe (Springpfuhl und Poelchaustraße), wobei der S-Bahnhof Springpfuhl durch zwei Linien (S7 und S75) erschlossen ist, bevor die S 75 nach Hohenschönhausen abzweigt und die S7 bis nach Ahrensfelde führt, an der Schnittstelle zu Lichtenberg liegt der S-Bahnhof Friedrichsfelde-Ost. Mit den Tramlinien 18 und 8 sowie mehreren Buslinien gibt es weitere gute ÖPNV-Anschlüsse.</t>
   </si>
   <si>
     <t>Weeber+Partner, Sozialraumorientierung Marzahn-Hellersdorf, Bezirksregionenprofile 2018, Teil 1, Luftbild der Bezirksregion, Kartengrundlage: Geoportal Berlin / Digitale farbige Orthophotos 2019 und Amt für Statistik Berlin-Brandenburg, Grenzen der Lebensweltlich orientierten Räume (LOR), 2016.</t>
@@ -4512,17 +4489,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Weeber+Partner, Sozialraumorientierung Marzahn-Hellersdorf, Bezirksregionenprofile 2018, Teil 1, eigene Darstellung; Daten: Amt für Statistik Berlin, Stand 31.12.2017.</t>
-  </si>
-  <si>
-    <t>"Mit dem Monitoring Soziale Stadtentwicklung (MSS) wird die sozialstrukturelle Entwicklung in den Teilräumen Berlins beobachtet. Auf Ebene der 447 Planungsräume (PLR) werden dabei Gebiete identifiziert, die erhöhter stadtentwicklungspolitischer Aufmerksamkeit bedürfen. Das Monitoring wurde erstmals 1998 im Rahmen der Untersuchung "Sozialorientierte Stadtentwicklung" erstellt und wird von der Senatsverwaltung für Stadtentwicklung seitdem kontinuierlich fortgeschrieben"(Senatsverwaltung für Stadtentwicklung und Wohnen (Hrsg.) (2017): Monitoring Soziale Stadtentwicklung, Berlin, S. 9f.). Seit dem Monitoring 2013 wird ein gestuftes Indexverfahren auf der Basis von vier Indikatoren genutzt, um die soziale Situation (Status-Index) und deren Entwicklung (Dynamik-Index, bezogen auf die letzten zwei Jahre) zu beschreiben. In den Index gehen die folgenden Indikatoren und ihre Entwicklungen ein: 
-- Arbeitslosigkeit (nach SGB II und III), 
-- Langzeitarbeitslosigkeit (nach SGB II und III), 
-- Transferbezug der Nichtarbeitslosen (nach SGB II und VII),
-- Kinderarmut (Transferbezug SGB II der unter 15-Jährigen).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Status-Index gliedert sich – je nach Ausmaß von Arbeitslosigkeit, Transferbezug und Kinderarmut und in deren Kombination – in vier Klassen (hoch, mittel, niedrig, sehr niedrig), der Dynamik-Index – der sich aus den Entwicklungen der Indikatoren im jeweils betrachteten Zeitraum speist – in drei Klassen (positiv, stabil, negativ). Aus der Überlagerung von Status- und Dynamik-Index ergeben sich zwölf Gruppen, mit denen die Gesamtsituation in den Planungsräumen (nicht auf Ebene der Bezirksregionen) bewertet und als Gesamtindex Soziale Ungleichheit beschrieben wird. Damit lassen sich dann Gebiete mit besonderem Aufmerksamkeitsbedarf identifizieren. Im aktuell vorliegenden Monitoring wurden die Entwicklungen der Jahre 2015 und 2016 (31.12.2014 bis 31.12.2016) anhand der genannten Indikatoren eingeschätzt und Status und Entwicklung der Planungsregionen entsprechend bewertet. 
-Auf dieser Grundlage wird der soziale Status der Bezirksregion Marzahn-Süd der zweithöchsten Klasse (2=mittel) zugeordnet mit zugleich positiver Dynamik (+). Die Gesamtsituation ist demnach eher unauffällig und zugleich im Aufwärtstrend (2+). Mit dieser Bewertung bewegt sich die Region im Berliner Durchschnitt und erzeugt keinen Aufmerksamkeitsbedarf. </t>
   </si>
   <si>
     <t>Das Ergebnis setzt sich auf Ebene der Planungsräume fort, alle vier Planungsräume werden der mittleren Kategorie zugeordnet, zwei – Alt-Marzahn und Springpfuhl – mit positiver Tendenz, der Planungsraum Marzahner Chaussee auf stabilem Niveau, das Landsberger Tor mit eher negativem Vorzeichen. Dabei ist die jeweils aktuelle Situation in den vier Planungsräumen durchaus verschieden. Marzahner Chaussee und Landsberger Tor auf der einen Seite weisen durchweg bessere Werte in allen Monitoring-Statusindikatoren auf als die anderen beiden Planungsräume. Sie schneiden auch im Vergleich zum Gesamtbezirk und zu Berlin bei Arbeitslosigkeit, Transferbezug und Kinderarmut deutlich besser ab.</t>
@@ -4639,9 +4605,6 @@
     <t>Quote in % in 2017</t>
   </si>
   <si>
-    <t>&lt;b&gt;Berlin&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>47.0</t>
   </si>
   <si>
@@ -4685,6 +4648,36 @@
   </si>
   <si>
     <t>2_Barchart_1</t>
+  </si>
+  <si>
+    <t>Marzahn-Süd (BZR 100103) ist mit einer Fläche von 903 ha die größte der drei Bezirksregionen der Großsiedlung Marzahn.</t>
+  </si>
+  <si>
+    <t>Die Bezirksregion besteht aus vier Planungsräumen:
+- Marzahner Chaussee (10010308),
+- Springpfuhl (10010309),
+- Alt-Marzahn (10010310),
+- Landsberger Tor (10010311).
+Begrenzt wird die Bezirksregion im Norden durch die Landsberger Allee, im Süden durch das Siedlungsgebiet Biesdorf, im Osten durch den Wuhle-Landschaftsraum und im Westen durch die Rhinstraße und den Bezirk Lichtenberg.</t>
+  </si>
+  <si>
+    <t>Der Grundstein für die Großsiedlung Marzahn wurde 1977 im Planungsraum Springpfuhl gelegt. Die Baustruktur der Bezirksregion ist geprägt von 5- bis 11-geschossigen Wohngebäuden, ergänzt durch 18- bis 21-geschossige Punkthochhäuser, entlang der Allee der Kosmonauten und der Poelchaustraße.
+Städtebaulich besonders markant ist die Bebauung am Helene-Weigel-Platz mit den drei 24- bzw. 26-geschossigen Hochhäusern sowie dem inzwischen denkmalgeschützten Rathaus Marzahn.
+Für die Bezirksregion charakteristisch ist der erhaltene Dorfkern Alt-Marzahn mit historischem Anger und Kirche sowie der Bockwindmühle als Landmarke inmitten der Großsiedlung. Südlich anschließend an den Dorfkern befinden sich im Planungsraum Alt-Marzahn größere zusammenhängende Ein- und Zweifamilienhausgebiete. Auch der Planungsraum Marzahner Chaussee besteht nahezu ausschließlich aus diesen Kleinhausgebieten.
+Im Planungsraum Landsberger Tor entstand in den 1990er Jahren das gleichnamige Wohnquartier mit 5- bis 6-geschossigen Wohngebäuden. Typisch für die Baustruktur der Großsiedlung ist, dass wichtige Infrastrukturen, wie Kitas und Schulen, wohnnah vorhanden sind.
+Es gibt zwei größere Nahversorgungs- und Dienstleistungszentren, die durch Angebote in Streulagen ergänzt werden. Hinzu kommt ein großes Fachmarktzentrum an der Märkischen Spitze.
+Nicht nur für den Bezirk, sondern überregional von Bedeutung, sind die "Gärten der Welt" auf einer 21 ha großen Fläche im Planungsraum Landsberger Tor, wo 2017 die Internationale Gartenausstellung stattfand.
+Ebenso bedeutsam sind die Gewerbegebiete westlich der S-Bahn, die einen Großteil des Planungsraums Marzahner Chaussee ausmachen und bis an die Bezirksgrenze zu Lichtenberg heranreichen. Hierzu gehört auch das weithin sichtbare Bürohochhaus "Pyramide Marzahn".
+Die verkehrliche Erschließung erfolgt über die Märkische Allee (Bundesstraße 158), die Landsberger Allee, die Rhinstraße sowie die Allee der Kosmonauten. In der Bezirksregion liegen zwei S-Bahnhöfe (Springpfuhl und Poelchaustraße), wobei der S-Bahnhof Springpfuhl durch zwei Linien (S7 und S75) erschlossen ist, bevor die S 75 nach Hohenschönhausen abzweigt und die S7 bis nach Ahrensfelde führt, an der Schnittstelle zu Lichtenberg liegt der S-Bahnhof Friedrichsfelde-Ost. Mit den Tramlinien 18 und 8 sowie mehreren Buslinien gibt es weitere gute ÖPNV-Anschlüsse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Mit dem Monitoring Soziale Stadtentwicklung (MSS) wird die sozialstrukturelle Entwicklung in den Teilräumen Berlins beobachtet. Auf Ebene der 447 Planungsräume (PLR) werden dabei Gebiete identifiziert, die erhöhter stadtentwicklungspolitischer Aufmerksamkeit bedürfen. Das Monitoring wurde erstmals 1998 im Rahmen der Untersuchung "Sozialorientierte Stadtentwicklung" erstellt und wird von der Senatsverwaltung für Stadtentwicklung seitdem kontinuierlich fortgeschrieben" (Senatsverwaltung für Stadtentwicklung und Wohnen (Hrsg.) (2017): Monitoring Soziale Stadtentwicklung, Berlin, S. 9f.). Seit dem Monitoring 2013 wird ein gestuftes Indexverfahren auf der Basis von vier Indikatoren genutzt, um die soziale Situation (Status-Index) und deren Entwicklung (Dynamik-Index, bezogen auf die letzten zwei Jahre) zu beschreiben. In den Index gehen die folgenden Indikatoren und ihre Entwicklungen ein: 
+- Arbeitslosigkeit (nach SGB II und III), 
+- Langzeitarbeitslosigkeit (nach SGB II und III), 
+- Transferbezug der Nichtarbeitslosen (nach SGB II und VII),
+- Kinderarmut (Transferbezug SGB II der unter 15-Jährigen).
+Der Status-Index gliedert sich – je nach Ausmaß von Arbeitslosigkeit, Transferbezug und Kinderarmut und in deren Kombination – in vier Klassen (hoch, mittel, niedrig, sehr niedrig), der Dynamik-Index – der sich aus den Entwicklungen der Indikatoren im jeweils betrachteten Zeitraum speist – in drei Klassen (positiv, stabil, negativ). Aus der Überlagerung von Status- und Dynamik-Index ergeben sich zwölf Gruppen, mit denen die Gesamtsituation in den Planungsräumen (nicht auf Ebene der Bezirksregionen) bewertet und als Gesamtindex Soziale Ungleichheit beschrieben wird. Damit lassen sich dann Gebiete mit besonderem Aufmerksamkeitsbedarf identifizieren. Im aktuell vorliegenden Monitoring wurden die Entwicklungen der Jahre 2015 und 2016 (31.12.2014 bis 31.12.2016) anhand der genannten Indikatoren eingeschätzt und Status und Entwicklung der Planungsregionen entsprechend bewertet. 
+Auf dieser Grundlage wird der soziale Status der Bezirksregion Marzahn-Süd der zweithöchsten Klasse (2=mittel) zugeordnet mit zugleich positiver Dynamik (+). Die Gesamtsituation ist demnach eher unauffällig und zugleich im Aufwärtstrend (2+). Mit dieser Bewertung bewegt sich die Region im Berliner Durchschnitt und erzeugt keinen Aufmerksamkeitsbedarf. </t>
   </si>
 </sst>
 </file>
@@ -5542,7 +5535,7 @@
     </row>
     <row r="2" spans="1:6" ht="409" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="7"/>
@@ -17205,10 +17198,10 @@
         <v>10010308</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>1046</v>
@@ -17219,7 +17212,7 @@
         <v>10010309</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -17229,7 +17222,7 @@
         <v>10010310</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -17239,7 +17232,7 @@
         <v>10010311</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -21263,7 +21256,7 @@
         <v>43.8</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>1046</v>
@@ -25287,7 +25280,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -25337,7 +25330,7 @@
     </row>
     <row r="2" spans="1:26" ht="83" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B2">
         <v>38194</v>
@@ -25346,10 +25339,10 @@
         <v>4211</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
@@ -25363,11 +25356,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -25462,7 +25455,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="34" t="s">
-        <v>1057</v>
+        <v>1178</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -25487,7 +25480,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="70">
+    <row r="4" spans="1:26" ht="112">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -25496,7 +25489,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="33" t="s">
-        <v>1138</v>
+        <v>1179</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -25521,16 +25514,16 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26" ht="28">
+    <row r="5" spans="1:26" ht="14">
       <c r="A5" s="15">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="33" t="s">
-        <v>1139</v>
+        <v>1057</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -25555,16 +25548,16 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" spans="1:26" ht="280">
       <c r="A6" s="15">
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="33" t="s">
-        <v>1058</v>
+        <v>1180</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -25589,19 +25582,23 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:26" ht="266">
+    <row r="7" spans="1:26" ht="13">
       <c r="A7" s="15">
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -25623,23 +25620,19 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
     </row>
-    <row r="8" spans="1:26" ht="13">
+    <row r="8" spans="1:26" ht="14">
       <c r="A8" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="11" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>1144</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="33" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -25661,18 +25654,22 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
     </row>
-    <row r="9" spans="1:26" ht="14">
+    <row r="9" spans="1:26" ht="13">
       <c r="A9" s="15">
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="D9" s="34" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>1138</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -25695,21 +25692,16 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
     </row>
-    <row r="10" spans="1:26" ht="13">
+    <row r="10" spans="1:26" ht="56">
       <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>1142</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="33" t="s">
+        <v>1139</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -25733,18 +25725,25 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
     </row>
-    <row r="11" spans="1:26" ht="56">
+    <row r="11" spans="1:26" ht="13">
       <c r="A11" s="15">
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="33" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>1142</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -25766,25 +25765,18 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" spans="1:26" ht="13">
+    <row r="12" spans="1:26" ht="42">
       <c r="A12" s="15">
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>1146</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="33" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -25806,16 +25798,21 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
     </row>
-    <row r="13" spans="1:26" ht="42">
+    <row r="13" spans="1:26" ht="196">
       <c r="A13" s="15">
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="33" t="s">
-        <v>1147</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>1144</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -25839,23 +25836,25 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
     </row>
-    <row r="14" spans="1:26" ht="196">
+    <row r="14" spans="1:26" ht="13">
       <c r="A14" s="15">
         <v>2</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>1083</v>
+        <v>1113</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>1112</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>1145</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -25877,25 +25876,17 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
     </row>
-    <row r="15" spans="1:26" ht="13">
+    <row r="15" spans="1:26" ht="98">
       <c r="A15" s="15">
         <v>2</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>1149</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -25917,15 +25908,18 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
     </row>
-    <row r="16" spans="1:26" ht="98">
+    <row r="16" spans="1:26" ht="14">
       <c r="A16" s="15">
         <v>2</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>103</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1177</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>1150</v>
+        <v>1114</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -25957,10 +25951,11 @@
         <v>103</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>1115</v>
+        <v>1176</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34" t="s">
+        <v>1147</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -25985,19 +25980,16 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" ht="13">
-      <c r="A18" s="15">
-        <v>2</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34" t="s">
-        <v>1151</v>
-      </c>
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -26020,15 +26012,17 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="1:26" ht="13">
+    <row r="19" spans="1:26" ht="280">
       <c r="A19" s="9">
+        <f>VLOOKUP(A18,A18:A1009,1,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>1117</v>
+      <c r="B19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="33" t="s">
+        <v>1181</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -26053,17 +26047,16 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
     </row>
-    <row r="20" spans="1:26" ht="140">
+    <row r="20" spans="1:26" ht="13">
       <c r="A20" s="9">
-        <f>VLOOKUP(A19,A19:A1011,1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="33" t="s">
-        <v>1152</v>
+      <c r="D20" s="34" t="s">
+        <v>1148</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -26088,18 +26081,22 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="1:26" ht="126">
+    <row r="21" spans="1:26" ht="13">
       <c r="A21" s="9">
         <v>3</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="33" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E21" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>1122</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -26123,17 +26120,21 @@
       <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26" ht="13">
-      <c r="A22" s="9">
+      <c r="A22" s="15">
         <v>3</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="11"/>
+        <v>115</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>1156</v>
+      </c>
       <c r="D22" s="34" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E22" s="11"/>
+        <v>1149</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>1150</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -26158,20 +26159,17 @@
     </row>
     <row r="23" spans="1:26" ht="13">
       <c r="A23" s="9">
+        <f>VLOOKUP(A21,A21:A1017,1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>1123</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="34" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -26194,22 +26192,18 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="1:26" ht="13">
-      <c r="A24" s="15">
+    <row r="24" spans="1:26" ht="84">
+      <c r="A24" s="9">
         <v>3</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>1156</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="33" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -26234,15 +26228,13 @@
     </row>
     <row r="25" spans="1:26" ht="13">
       <c r="A25" s="9">
-        <f>VLOOKUP(A23,A23:A1019,1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="11"/>
+        <v>13</v>
+      </c>
       <c r="D25" s="34" t="s">
-        <v>1157</v>
+        <v>1123</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -26267,18 +26259,23 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
     </row>
-    <row r="26" spans="1:26" ht="84">
+    <row r="26" spans="1:26" ht="13">
       <c r="A26" s="9">
+        <f>VLOOKUP(A25,A25:A1021,1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="33" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E26" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>1124</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -26303,14 +26300,12 @@
     </row>
     <row r="27" spans="1:26" ht="13">
       <c r="A27" s="9">
+        <f>VLOOKUP(A26,A26:A1023,1,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>1124</v>
-      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -26336,21 +26331,13 @@
     </row>
     <row r="28" spans="1:26" ht="13">
       <c r="A28" s="9">
-        <f>VLOOKUP(A27,A27:A1023,1,FALSE)</f>
+        <f>VLOOKUP(A27,A26:A1023,1,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>1125</v>
-      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -33194,10 +33181,7 @@
       <c r="Z248" s="11"/>
     </row>
     <row r="249" spans="1:26" ht="13">
-      <c r="A249" s="9">
-        <f>VLOOKUP(A248,A248:A1245,1,FALSE)</f>
-        <v>3</v>
-      </c>
+      <c r="A249" s="24"/>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
@@ -33225,10 +33209,7 @@
       <c r="Z249" s="11"/>
     </row>
     <row r="250" spans="1:26" ht="13">
-      <c r="A250" s="9">
-        <f>VLOOKUP(A249,A248:A1245,1,FALSE)</f>
-        <v>3</v>
-      </c>
+      <c r="A250" s="24"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
@@ -54227,78 +54208,22 @@
       <c r="Y999" s="11"/>
       <c r="Z999" s="11"/>
     </row>
-    <row r="1000" spans="1:26" ht="13">
-      <c r="A1000" s="24"/>
-      <c r="B1000" s="11"/>
-      <c r="C1000" s="11"/>
-      <c r="D1000" s="11"/>
-      <c r="E1000" s="11"/>
-      <c r="F1000" s="11"/>
-      <c r="G1000" s="11"/>
-      <c r="H1000" s="11"/>
-      <c r="I1000" s="11"/>
-      <c r="J1000" s="11"/>
-      <c r="K1000" s="11"/>
-      <c r="L1000" s="11"/>
-      <c r="M1000" s="11"/>
-      <c r="N1000" s="11"/>
-      <c r="O1000" s="11"/>
-      <c r="P1000" s="11"/>
-      <c r="Q1000" s="11"/>
-      <c r="R1000" s="11"/>
-      <c r="S1000" s="11"/>
-      <c r="T1000" s="11"/>
-      <c r="U1000" s="11"/>
-      <c r="V1000" s="11"/>
-      <c r="W1000" s="11"/>
-      <c r="X1000" s="11"/>
-      <c r="Y1000" s="11"/>
-      <c r="Z1000" s="11"/>
-    </row>
-    <row r="1001" spans="1:26" ht="13">
-      <c r="A1001" s="24"/>
-      <c r="B1001" s="11"/>
-      <c r="C1001" s="11"/>
-      <c r="D1001" s="11"/>
-      <c r="E1001" s="11"/>
-      <c r="F1001" s="11"/>
-      <c r="G1001" s="11"/>
-      <c r="H1001" s="11"/>
-      <c r="I1001" s="11"/>
-      <c r="J1001" s="11"/>
-      <c r="K1001" s="11"/>
-      <c r="L1001" s="11"/>
-      <c r="M1001" s="11"/>
-      <c r="N1001" s="11"/>
-      <c r="O1001" s="11"/>
-      <c r="P1001" s="11"/>
-      <c r="Q1001" s="11"/>
-      <c r="R1001" s="11"/>
-      <c r="S1001" s="11"/>
-      <c r="T1001" s="11"/>
-      <c r="U1001" s="11"/>
-      <c r="V1001" s="11"/>
-      <c r="W1001" s="11"/>
-      <c r="X1001" s="11"/>
-      <c r="Y1001" s="11"/>
-      <c r="Z1001" s="11"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A1000">
+  <conditionalFormatting sqref="A2:A998">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(NOT(ISBLANK(A2)),A2,)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B999">
+  <conditionalFormatting sqref="B2:B997">
     <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie eine Zahl ein. zwischen 1 und 14" sqref="A2:A1001" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie eine Zahl ein. zwischen 1 und 14" sqref="A2:A999" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Klicken Sie und geben Sie einen Wert ein aus: Liste mit Elementen" sqref="B2:B1001" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Klicken Sie und geben Sie einen Wert ein aus: Liste mit Elementen" sqref="B2:B999" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"titel,titel-sm,text,table,barchart,map-pr,linechart,map-poi,image"</formula1>
     </dataValidation>
   </dataValidations>
@@ -54311,7 +54236,7 @@
           <x14:formula1>
             <xm:f>readme!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C28:C1001 C2:C15 C20:C26</xm:sqref>
+          <xm:sqref>C26:C999 C2:C14 C19:C24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -54331,22 +54256,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42">
       <c r="A1" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>1174</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14">
@@ -54354,10 +54279,10 @@
         <v>839</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="D2" s="26">
         <v>15</v>
@@ -54387,7 +54312,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -54419,33 +54344,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42">
       <c r="A1" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>1174</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14">
       <c r="A2" s="26" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="D2" s="26">
         <v>16</v>
@@ -54533,22 +54458,22 @@
         <v>1050</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>1065</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>1066</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>1067</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>1068</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -54591,7 +54516,7 @@
         <v>577</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
@@ -54608,13 +54533,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F3" s="30">
         <v>51</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
@@ -54631,13 +54556,13 @@
         <v>449</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F4" s="37">
         <v>974</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
@@ -54654,13 +54579,13 @@
         <v>334</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F5" s="30">
         <v>309</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
@@ -54668,7 +54593,7 @@
         <v>100103</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C6" s="30">
         <v>38194</v>
@@ -54677,13 +54602,13 @@
         <v>737</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="F6" s="36">
         <v>1911</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
@@ -54700,18 +54625,18 @@
         <v>4669</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F7" s="36">
         <v>14805</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C8" s="30">
         <v>3711930</v>
@@ -54720,13 +54645,13 @@
         <v>41308</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F8" s="36">
         <v>242309</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -54750,22 +54675,22 @@
         <v>1050</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>1085</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="29" t="s">
         <v>1086</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="20" t="s">
         <v>1087</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -54776,19 +54701,19 @@
         <v>838</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>1089</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="21" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>1090</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>1091</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -54799,19 +54724,19 @@
         <v>841</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E3" s="35">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -54822,16 +54747,16 @@
         <v>843</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>1095</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="21" t="s">
         <v>1096</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>1097</v>
-      </c>
       <c r="F4" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G4" s="36">
         <v>0</v>
@@ -54845,19 +54770,19 @@
         <v>845</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>1098</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E5" s="21" t="s">
         <v>1099</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="23" t="s">
         <v>1100</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>1101</v>
-      </c>
       <c r="G5" s="36" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -54865,22 +54790,22 @@
         <v>100103</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>1102</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>1103</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="28" t="s">
         <v>1104</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="28" t="s">
         <v>1105</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -54891,39 +54816,39 @@
         <v>823</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>1107</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="28" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>1108</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="28" t="s">
         <v>1109</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="23" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E8" s="36">
         <v>0</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -54947,22 +54872,22 @@
         <v>1050</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -54973,13 +54898,13 @@
         <v>838</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F2" s="30">
         <v>2</v>
@@ -54996,13 +54921,13 @@
         <v>841</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F3" s="30">
         <v>2</v>
@@ -55019,13 +54944,13 @@
         <v>843</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F4" s="30">
         <v>2</v>
@@ -55042,13 +54967,13 @@
         <v>845</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F5" s="30">
         <v>2</v>
@@ -55091,8 +55016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2459469E-B97A-4BCC-89DC-14755AF58FBD}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -55102,19 +55027,19 @@
         <v>1050</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G1" s="20"/>
     </row>
@@ -55132,7 +55057,7 @@
         <v>66.7</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F2" s="30">
         <v>61</v>
@@ -55153,7 +55078,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F3" s="30">
         <v>61.7</v>
@@ -55174,7 +55099,7 @@
         <v>60.3</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F4" s="30">
         <v>60.7</v>
@@ -55195,7 +55120,7 @@
         <v>70.2</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F5" s="30">
         <v>68.8</v>
@@ -55207,7 +55132,7 @@
         <v>100103</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C6" s="30">
         <v>14329</v>
@@ -55216,7 +55141,7 @@
         <v>62.6</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F6" s="36">
         <v>61.7</v>
@@ -55237,7 +55162,7 @@
         <v>61.2</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F7" s="36">
         <v>60.4</v>
@@ -55246,19 +55171,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="23" t="s">
-        <v>1169</v>
+        <v>1063</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D8" s="30">
         <v>52.8</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G8" s="28"/>
     </row>

--- a/data-input/marzahnsued.xlsx
+++ b/data-input/marzahnsued.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/GitHub/bezirksregionenprofile-daten/data-input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC18EF2B-3F00-CA43-8DEF-13882B9A87C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D08AB0-E8E7-F840-9D8D-C3C48A520025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="4200" windowWidth="27840" windowHeight="14380" tabRatio="756" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="4200" windowWidth="27840" windowHeight="14380" tabRatio="756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="1186">
   <si>
     <t>ref</t>
   </si>
@@ -4679,6 +4679,18 @@
 Der Status-Index gliedert sich – je nach Ausmaß von Arbeitslosigkeit, Transferbezug und Kinderarmut und in deren Kombination – in vier Klassen (hoch, mittel, niedrig, sehr niedrig), der Dynamik-Index – der sich aus den Entwicklungen der Indikatoren im jeweils betrachteten Zeitraum speist – in drei Klassen (positiv, stabil, negativ). Aus der Überlagerung von Status- und Dynamik-Index ergeben sich zwölf Gruppen, mit denen die Gesamtsituation in den Planungsräumen (nicht auf Ebene der Bezirksregionen) bewertet und als Gesamtindex Soziale Ungleichheit beschrieben wird. Damit lassen sich dann Gebiete mit besonderem Aufmerksamkeitsbedarf identifizieren. Im aktuell vorliegenden Monitoring wurden die Entwicklungen der Jahre 2015 und 2016 (31.12.2014 bis 31.12.2016) anhand der genannten Indikatoren eingeschätzt und Status und Entwicklung der Planungsregionen entsprechend bewertet. 
 Auf dieser Grundlage wird der soziale Status der Bezirksregion Marzahn-Süd der zweithöchsten Klasse (2=mittel) zugeordnet mit zugleich positiver Dynamik (+). Die Gesamtsituation ist demnach eher unauffällig und zugleich im Aufwärtstrend (2+). Mit dieser Bewertung bewegt sich die Region im Berliner Durchschnitt und erzeugt keinen Aufmerksamkeitsbedarf. </t>
   </si>
+  <si>
+    <t>Auswählbare Farbpaletten für map-pr und map-poi:</t>
+  </si>
+  <si>
+    <t>#1E3791: blau</t>
+  </si>
+  <si>
+    <t>#E60032: rot</t>
+  </si>
+  <si>
+    <t>#F5F5F5: grau</t>
+  </si>
 </sst>
 </file>
 
@@ -4688,7 +4700,7 @@
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4777,8 +4789,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4809,6 +4828,24 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4822,7 +4859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4886,6 +4923,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5502,9 +5543,9 @@
   </sheetPr>
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -6590,7 +6631,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="16">
-      <c r="A68" s="17"/>
+      <c r="A68" s="39" t="s">
+        <v>1182</v>
+      </c>
       <c r="B68" s="17"/>
       <c r="C68" s="12" t="s">
         <v>151</v>
@@ -6606,7 +6649,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="16">
-      <c r="A69" s="17"/>
+      <c r="A69" s="40" t="s">
+        <v>1183</v>
+      </c>
       <c r="B69" s="17"/>
       <c r="C69" s="12" t="s">
         <v>153</v>
@@ -6622,7 +6667,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="16">
-      <c r="A70" s="17"/>
+      <c r="A70" s="42" t="s">
+        <v>1184</v>
+      </c>
       <c r="B70" s="17"/>
       <c r="C70" s="12" t="s">
         <v>155</v>
@@ -6638,7 +6685,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="16">
-      <c r="A71" s="17"/>
+      <c r="A71" s="41" t="s">
+        <v>1185</v>
+      </c>
       <c r="B71" s="17"/>
       <c r="C71" s="12" t="s">
         <v>158</v>
@@ -25798,7 +25847,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
     </row>
-    <row r="13" spans="1:26" ht="196">
+    <row r="13" spans="1:26" ht="182">
       <c r="A13" s="15">
         <v>2</v>
       </c>
@@ -55016,7 +55065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2459469E-B97A-4BCC-89DC-14755AF58FBD}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
